--- a/11/1/1/Ventas autos nuevos 2009 a 2021 - Mensual.xlsx
+++ b/11/1/1/Ventas autos nuevos 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>Serie</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -830,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1953,7 +1956,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>11457</v>
+        <v>11464</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1961,7 +1964,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>19036</v>
+        <v>19037</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1985,7 +1988,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>29481</v>
+        <v>29486</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2050,6 +2053,14 @@
       </c>
       <c r="B152">
         <v>38226</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>37564</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/1/Ventas autos nuevos 2009 a 2021 - Mensual.xlsx
+++ b/11/1/1/Ventas autos nuevos 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Serie</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -833,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B153"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2063,6 +2066,14 @@
         <v>37564</v>
       </c>
     </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>42627</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/11/1/1/Ventas autos nuevos 2009 a 2021 - Mensual.xlsx
+++ b/11/1/1/Ventas autos nuevos 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Serie</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -836,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:B155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2074,6 +2077,14 @@
         <v>42627</v>
       </c>
     </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>38551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
